--- a/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
+++ b/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
+++ b/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.56</v>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
+++ b/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.56</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1387,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
+++ b/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,357 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007689</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银新能源混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>81.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4182</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006736</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>43.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6851</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007690</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银新能源混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9843</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3636</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000165</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>60.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0895</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010008</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010009</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+      <c r="D5" t="n">
+        <v>5.71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -814,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>013067</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>富安达中小盘六个月持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.91</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>88.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7544</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -903,112 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310308</t>
+          <t>165528</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信盛利精选混合</t>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.06</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4769</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>121003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银核心企业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>73.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2733</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013067</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富安达中小盘六个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>49.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0514</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,32 +907,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013067</t>
+          <t>006736</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富安达中小盘六个月持有期混合</t>
+          <t>国投瑞银先进制造混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>46.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>1.7544</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1281,36 +945,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165528</t>
+          <t>310308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
+          <t>申万菱信盛利精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>72.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.4769</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1324,96 +1064,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.71</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
+++ b/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.56</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.71</v>
       </c>
     </row>
@@ -605,32 +622,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013067</t>
+          <t>013389</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富安达中小盘六个月持有期混合</t>
+          <t>华夏成长先锋一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.4624</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165528</t>
+          <t>013390</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
+          <t>华夏成长先锋一年持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.1543</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -681,6 +698,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -850,7 +999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1058,7 +1207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
+++ b/数据整理/stocks/A股/创业板/300655-晶瑞电材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.56</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.71</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013389</t>
+          <t>012428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏成长先锋一年持有混合A</t>
+          <t>华夏核心制造混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>32.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>76.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4624</t>
+          <t>1.1057</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>013390</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>华夏成长先锋一年持有混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1543</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -754,32 +847,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013067</t>
+          <t>013389</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富安达中小盘六个月持有期混合</t>
+          <t>华夏成长先锋一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.4624</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -792,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165528</t>
+          <t>013390</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
+          <t>华夏成长先锋一年持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.1543</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -830,6 +923,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -999,7 +1224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1207,7 +1432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
